--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_8_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_8_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90569.80729245565</v>
+        <v>88865.45515574388</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>205.5810588664028</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>220.8837963815378</v>
-      </c>
-      <c r="G2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>50.12830685834946</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>202.972415416425</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>208.2638363878124</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>224.2573727669508</v>
+        <v>92.43182268622287</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.17354161800006</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>66.34967692257977</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>26.09600162523251</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.3140662372056</v>
+        <v>270.3552299070221</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>361.5105946459868</v>
       </c>
       <c r="F11" t="n">
-        <v>159.7482965188191</v>
+        <v>386.4562703154365</v>
       </c>
       <c r="G11" t="n">
         <v>392.5197736437241</v>
@@ -1388,7 +1388,7 @@
         <v>294.8530230257433</v>
       </c>
       <c r="I11" t="n">
-        <v>98.94929161302578</v>
+        <v>98.94929161302574</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.7491374664341</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>192.3312167192736</v>
       </c>
       <c r="U11" t="n">
-        <v>230.7368224059507</v>
+        <v>230.7368224059506</v>
       </c>
       <c r="V11" t="n">
         <v>307.33248304386</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.65304841868482</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S12" t="n">
         <v>148.1971745240615</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.8270456723529</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.1956975919374</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>126.0141872202942</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>146.5111589513636</v>
       </c>
       <c r="H13" t="n">
-        <v>132.3826335244176</v>
+        <v>132.3826335244175</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1522558959534</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.2101389041963</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>202.9965309021383</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>244.7337127969025</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>266.103222910316</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>162.4733725947025</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>198.1648779258198</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>362.3140662372057</v>
+        <v>362.3140662372056</v>
       </c>
       <c r="C14" t="n">
-        <v>344.8531163447327</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>334.263266194408</v>
       </c>
       <c r="E14" t="n">
-        <v>104.5875594658252</v>
+        <v>361.5105946459868</v>
       </c>
       <c r="F14" t="n">
-        <v>386.4562703154366</v>
+        <v>386.4562703154365</v>
       </c>
       <c r="G14" t="n">
-        <v>392.5197736437242</v>
+        <v>392.5197736437241</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8530230257434</v>
+        <v>294.8530230257433</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.7491374664341</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>192.3312167192737</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>230.7368224059506</v>
       </c>
       <c r="V14" t="n">
-        <v>307.3324830438601</v>
+        <v>157.3428297937822</v>
       </c>
       <c r="W14" t="n">
-        <v>328.8211932911382</v>
+        <v>328.8211932911381</v>
       </c>
       <c r="X14" t="n">
-        <v>349.3113252521942</v>
+        <v>349.3113252521941</v>
       </c>
       <c r="Y14" t="n">
-        <v>365.8181632297787</v>
+        <v>365.8181632297786</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>100.990307056049</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.1956975919374</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.0012725966563</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>146.5111589513636</v>
       </c>
       <c r="H16" t="n">
-        <v>127.9402130575334</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.2101389041964</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>185.1231296267669</v>
+        <v>185.1231296267667</v>
       </c>
       <c r="T16" t="n">
-        <v>202.9965309021384</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>265.8414332948986</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>231.7178678975532</v>
+        <v>231.717867897553</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>205.2898799627622</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,16 +1844,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C17" t="n">
-        <v>283.4616219851629</v>
+        <v>283.461621985163</v>
       </c>
       <c r="D17" t="n">
-        <v>272.8717718348383</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E17" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F17" t="n">
-        <v>325.0647759558668</v>
+        <v>325.0647759558669</v>
       </c>
       <c r="G17" t="n">
         <v>331.1282792841545</v>
@@ -1862,7 +1862,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I17" t="n">
-        <v>37.5577972534561</v>
+        <v>37.55779725345616</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.3576431068644</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T17" t="n">
-        <v>130.9397223597039</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U17" t="n">
-        <v>169.345328046381</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V17" t="n">
         <v>245.9409886842903</v>
       </c>
       <c r="W17" t="n">
-        <v>267.4296989315684</v>
+        <v>267.4296989315685</v>
       </c>
       <c r="X17" t="n">
-        <v>287.9198308926244</v>
+        <v>287.9198308926245</v>
       </c>
       <c r="Y17" t="n">
         <v>304.426668870209</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.0207103960927</v>
+        <v>98.02071039609274</v>
       </c>
       <c r="C19" t="n">
-        <v>85.43555131278323</v>
+        <v>85.43555131278328</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80420323236775</v>
+        <v>66.8042032323678</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>64.62269286072461</v>
       </c>
       <c r="F19" t="n">
-        <v>63.60977823708664</v>
+        <v>63.60977823708669</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11966459179395</v>
+        <v>85.11966459179399</v>
       </c>
       <c r="H19" t="n">
-        <v>70.99113916484791</v>
+        <v>49.23088920967146</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76076153638377</v>
+        <v>41.76076153638381</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.81864454462661</v>
+        <v>47.81864454462664</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7316352671971</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>141.6050365425687</v>
       </c>
       <c r="U19" t="n">
-        <v>204.4499389353288</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V19" t="n">
         <v>170.3263735379834</v>
@@ -2065,7 +2065,7 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X19" t="n">
-        <v>63.02919324154429</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y19" t="n">
         <v>136.7733835662502</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.35764310686446</v>
+        <v>73.35764310686444</v>
       </c>
       <c r="T20" t="n">
         <v>130.939722359704</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.02071039609275</v>
+        <v>98.02071039609274</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>85.43555131278328</v>
       </c>
       <c r="D22" t="n">
-        <v>66.80420323236781</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.32712048751799</v>
+        <v>64.62269286072461</v>
       </c>
       <c r="F22" t="n">
-        <v>63.6097782370867</v>
+        <v>63.60977823708669</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179399</v>
+        <v>6.431982601788148</v>
       </c>
       <c r="H22" t="n">
         <v>70.99113916484797</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.76076153638381</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.81864454462666</v>
+        <v>47.81864454462665</v>
       </c>
       <c r="S22" t="n">
         <v>123.7316352671971</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.35764310686446</v>
+        <v>73.35764310686444</v>
       </c>
       <c r="T23" t="n">
         <v>130.939722359704</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.02071039609275</v>
+        <v>98.02071039609274</v>
       </c>
       <c r="C25" t="n">
-        <v>85.43555131278329</v>
+        <v>85.43555131278328</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>56.92615003556621</v>
+        <v>64.62269286072461</v>
       </c>
       <c r="F25" t="n">
-        <v>63.6097782370867</v>
+        <v>63.60977823708669</v>
       </c>
       <c r="G25" t="n">
         <v>85.11966459179399</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>70.99113916484797</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76076153638382</v>
+        <v>41.76076153638381</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.81864454462666</v>
+        <v>47.81864454462664</v>
       </c>
       <c r="S25" t="n">
         <v>123.7316352671971</v>
@@ -2536,7 +2536,7 @@
         <v>170.3263735379834</v>
       </c>
       <c r="W25" t="n">
-        <v>204.7117285507464</v>
+        <v>126.0240465607407</v>
       </c>
       <c r="X25" t="n">
         <v>143.8983856031926</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.35764310686451</v>
+        <v>73.3576431068645</v>
       </c>
       <c r="T26" t="n">
         <v>130.9397223597041</v>
       </c>
       <c r="U26" t="n">
-        <v>169.3453280463812</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V26" t="n">
         <v>245.9409886842904</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.02071039609281</v>
+        <v>98.0207103960928</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>85.43555131278333</v>
       </c>
       <c r="D28" t="n">
-        <v>66.80420323236787</v>
+        <v>49.54478910780394</v>
       </c>
       <c r="E28" t="n">
-        <v>64.62269286072468</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>63.60977823708676</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>85.11966459179405</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99113916484804</v>
+        <v>70.99113916484802</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.76076153638387</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.52307217141823</v>
+        <v>47.81864454462671</v>
       </c>
       <c r="S28" t="n">
         <v>123.7316352671972</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>300.922571877636</v>
+        <v>300.9225718776361</v>
       </c>
       <c r="C29" t="n">
         <v>283.461621985163</v>
       </c>
       <c r="D29" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348385</v>
       </c>
       <c r="E29" t="n">
-        <v>300.1191002864172</v>
+        <v>300.1191002864173</v>
       </c>
       <c r="F29" t="n">
         <v>325.0647759558669</v>
       </c>
       <c r="G29" t="n">
-        <v>331.1282792841545</v>
+        <v>331.1282792841546</v>
       </c>
       <c r="H29" t="n">
-        <v>233.4615286661736</v>
+        <v>233.4615286661737</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345622</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.35764310686446</v>
+        <v>73.3576431068645</v>
       </c>
       <c r="T29" t="n">
-        <v>130.939722359704</v>
+        <v>130.9397223597041</v>
       </c>
       <c r="U29" t="n">
         <v>169.3453280463811</v>
       </c>
       <c r="V29" t="n">
-        <v>245.9409886842903</v>
+        <v>245.9409886842904</v>
       </c>
       <c r="W29" t="n">
         <v>267.4296989315685</v>
@@ -2858,7 +2858,7 @@
         <v>287.9198308926245</v>
       </c>
       <c r="Y29" t="n">
-        <v>304.426668870209</v>
+        <v>304.4266688702091</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.02071039609275</v>
+        <v>98.0207103960928</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>85.43555131278333</v>
       </c>
       <c r="D31" t="n">
-        <v>6.74786932277739</v>
+        <v>66.80420323236785</v>
       </c>
       <c r="E31" t="n">
-        <v>64.62269286072463</v>
+        <v>64.62269286072467</v>
       </c>
       <c r="F31" t="n">
-        <v>63.6097782370867</v>
+        <v>63.60977823708674</v>
       </c>
       <c r="G31" t="n">
-        <v>85.11966459179399</v>
+        <v>85.11966459179403</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99113916484797</v>
+        <v>70.99113916484802</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76076153638382</v>
+        <v>41.76076153638387</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.81864454462666</v>
+        <v>47.81864454462671</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7316352671971</v>
+        <v>123.7316352671972</v>
       </c>
       <c r="T31" t="n">
-        <v>141.6050365425687</v>
+        <v>141.6050365425688</v>
       </c>
       <c r="U31" t="n">
         <v>204.4499389353289</v>
       </c>
       <c r="V31" t="n">
-        <v>170.3263735379834</v>
+        <v>24.83448831560782</v>
       </c>
       <c r="W31" t="n">
-        <v>204.7117285507464</v>
+        <v>204.7117285507465</v>
       </c>
       <c r="X31" t="n">
-        <v>143.8983856031926</v>
+        <v>143.8983856031927</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.7733835662502</v>
+        <v>136.7733835662503</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>294.8199291298099</v>
+        <v>294.8199291298098</v>
       </c>
       <c r="C32" t="n">
         <v>277.3589792373368</v>
@@ -3035,19 +3035,19 @@
         <v>266.7691290870122</v>
       </c>
       <c r="E32" t="n">
-        <v>294.0164575385911</v>
+        <v>296.2197044479374</v>
       </c>
       <c r="F32" t="n">
         <v>318.9621332080407</v>
       </c>
       <c r="G32" t="n">
-        <v>325.0256365363284</v>
+        <v>412.9395490699991</v>
       </c>
       <c r="H32" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I32" t="n">
-        <v>31.45515450563001</v>
+        <v>31.45515450562996</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S32" t="n">
-        <v>155.168912892709</v>
+        <v>67.25500035903825</v>
       </c>
       <c r="T32" t="n">
         <v>124.8370796118778</v>
       </c>
       <c r="U32" t="n">
-        <v>165.445932207901</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V32" t="n">
         <v>239.8383459364642</v>
       </c>
       <c r="W32" t="n">
-        <v>261.3270561837423</v>
+        <v>261.3270561837422</v>
       </c>
       <c r="X32" t="n">
         <v>281.8171881447983</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.91806764826659</v>
+        <v>91.91806764826654</v>
       </c>
       <c r="C34" t="n">
-        <v>79.33290856495712</v>
+        <v>79.33290856495708</v>
       </c>
       <c r="D34" t="n">
-        <v>60.70156048454164</v>
+        <v>60.7015604845416</v>
       </c>
       <c r="E34" t="n">
-        <v>58.52005011289846</v>
+        <v>58.52005011289842</v>
       </c>
       <c r="F34" t="n">
-        <v>57.50713548926053</v>
+        <v>57.50713548926049</v>
       </c>
       <c r="G34" t="n">
-        <v>79.01702184396784</v>
+        <v>79.0170218439678</v>
       </c>
       <c r="H34" t="n">
-        <v>64.88849641702181</v>
+        <v>64.88849641702177</v>
       </c>
       <c r="I34" t="n">
-        <v>35.65811878855766</v>
+        <v>35.65811878855762</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71600179680048</v>
+        <v>41.71600179680044</v>
       </c>
       <c r="S34" t="n">
-        <v>117.628992519371</v>
+        <v>117.6289925193709</v>
       </c>
       <c r="T34" t="n">
         <v>135.5023937947425</v>
@@ -3244,16 +3244,16 @@
         <v>198.3472961875027</v>
       </c>
       <c r="V34" t="n">
-        <v>164.2237307901573</v>
+        <v>164.2237307901572</v>
       </c>
       <c r="W34" t="n">
-        <v>198.6090858029203</v>
+        <v>198.6090858029202</v>
       </c>
       <c r="X34" t="n">
         <v>137.7957428553664</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.6707408184241</v>
+        <v>130.670740818424</v>
       </c>
     </row>
     <row r="35">
@@ -3506,13 +3506,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D38" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E38" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F38" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G38" t="n">
         <v>325.0256365363284</v>
@@ -3521,7 +3521,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I38" t="n">
-        <v>31.45515450563002</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.25500035903831</v>
+        <v>67.25500035903828</v>
       </c>
       <c r="T38" t="n">
         <v>124.8370796118779</v>
@@ -3566,7 +3566,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X38" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y38" t="n">
         <v>298.3240261223829</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C40" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D40" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E40" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F40" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G40" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H40" t="n">
-        <v>64.88849641702183</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I40" t="n">
-        <v>35.65811878855767</v>
+        <v>35.65811878855766</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.7160017968005</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S40" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T40" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U40" t="n">
         <v>198.3472961875027</v>
@@ -3724,7 +3724,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X40" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y40" t="n">
         <v>130.6707408184241</v>
@@ -3758,7 +3758,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I41" t="n">
-        <v>31.45515450563006</v>
+        <v>31.45515450563003</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.25500035903835</v>
+        <v>67.25500035903831</v>
       </c>
       <c r="T41" t="n">
         <v>124.8370796118779</v>
       </c>
       <c r="U41" t="n">
-        <v>163.242685298555</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V41" t="n">
         <v>239.8383459364642</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.91806764826664</v>
+        <v>91.91806764826661</v>
       </c>
       <c r="C43" t="n">
-        <v>79.33290856495718</v>
+        <v>79.33290856495715</v>
       </c>
       <c r="D43" t="n">
-        <v>60.7015604845417</v>
+        <v>60.70156048454167</v>
       </c>
       <c r="E43" t="n">
-        <v>58.52005011289852</v>
+        <v>58.52005011289849</v>
       </c>
       <c r="F43" t="n">
-        <v>57.50713548926059</v>
+        <v>57.50713548926056</v>
       </c>
       <c r="G43" t="n">
-        <v>79.01702184396788</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H43" t="n">
-        <v>64.88849641702186</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I43" t="n">
-        <v>35.65811878855772</v>
+        <v>35.65811878855769</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71600179680055</v>
+        <v>41.71600179680053</v>
       </c>
       <c r="S43" t="n">
         <v>117.628992519371</v>
@@ -3980,13 +3980,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D44" t="n">
-        <v>266.7691290870122</v>
+        <v>266.7691290870123</v>
       </c>
       <c r="E44" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F44" t="n">
-        <v>318.9621332080407</v>
+        <v>318.9621332080408</v>
       </c>
       <c r="G44" t="n">
         <v>325.0256365363284</v>
@@ -3995,7 +3995,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I44" t="n">
-        <v>31.45515450562998</v>
+        <v>31.45515450563002</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.25500035903826</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T44" t="n">
-        <v>124.8370796118778</v>
+        <v>124.8370796118779</v>
       </c>
       <c r="U44" t="n">
         <v>163.2426852985549</v>
@@ -4040,7 +4040,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X44" t="n">
-        <v>281.8171881447983</v>
+        <v>281.8171881447984</v>
       </c>
       <c r="Y44" t="n">
         <v>298.3240261223829</v>
@@ -4071,10 +4071,10 @@
         <v>136.0790998739098</v>
       </c>
       <c r="H45" t="n">
-        <v>100.0238351529858</v>
+        <v>100.0238351529859</v>
       </c>
       <c r="I45" t="n">
-        <v>45.86296740838223</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.65304841868478</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S45" t="n">
         <v>148.1971745240615</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.91806764826659</v>
+        <v>91.9180676482666</v>
       </c>
       <c r="C46" t="n">
-        <v>79.33290856495712</v>
+        <v>79.33290856495714</v>
       </c>
       <c r="D46" t="n">
-        <v>60.70156048454164</v>
+        <v>60.70156048454166</v>
       </c>
       <c r="E46" t="n">
-        <v>58.52005011289846</v>
+        <v>58.52005011289847</v>
       </c>
       <c r="F46" t="n">
-        <v>57.50713548926053</v>
+        <v>57.50713548926055</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01702184396784</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H46" t="n">
-        <v>64.8884964170218</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I46" t="n">
-        <v>35.65811878855764</v>
+        <v>35.65811878855767</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71600179680048</v>
+        <v>41.7160017968005</v>
       </c>
       <c r="S46" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T46" t="n">
-        <v>135.5023937947425</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U46" t="n">
         <v>198.3472961875027</v>
@@ -4198,7 +4198,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X46" t="n">
-        <v>137.7957428553664</v>
+        <v>137.7957428553665</v>
       </c>
       <c r="Y46" t="n">
         <v>130.6707408184241</v>
@@ -4310,16 +4310,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="D2" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E2" t="n">
         <v>710.516763498309</v>
       </c>
       <c r="F2" t="n">
+        <v>502.8591282797204</v>
+      </c>
+      <c r="G2" t="n">
         <v>487.4018176583718</v>
-      </c>
-      <c r="G2" t="n">
-        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
         <v>243.9530410142718</v>
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.4227147053767</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C3" t="n">
-        <v>168.9696854242497</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
         <v>20.03527576299844</v>
@@ -4410,49 +4410,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>610.0663780300158</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>610.0663780300158</v>
       </c>
       <c r="W3" t="n">
-        <v>759.0345136758635</v>
+        <v>366.6176013859157</v>
       </c>
       <c r="X3" t="n">
-        <v>551.1830134703307</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="Y3" t="n">
-        <v>343.4227147053767</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>485.167420504237</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>241.7186438601369</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4595,22 +4595,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>728.6161971483371</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
         <v>20.03527576299844</v>
@@ -4650,16 +4650,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4674,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>454.3181732824481</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W6" t="n">
-        <v>227.7955745279523</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.23626279480629</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C8" t="n">
-        <v>72.23626279480629</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D8" t="n">
-        <v>72.23626279480629</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E8" t="n">
-        <v>72.23626279480629</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>72.23626279480629</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>454.2350688147492</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C9" t="n">
-        <v>454.2350688147492</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D9" t="n">
-        <v>305.3006591534979</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E9" t="n">
-        <v>305.3006591534979</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>622.4504058348173</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>622.4504058348173</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>622.4504058348173</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>622.4504058348173</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="X9" t="n">
-        <v>622.4504058348173</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y9" t="n">
-        <v>622.4504058348173</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
         <v>41.77557929797318</v>
@@ -4999,13 +4999,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1731.896832910307</v>
+        <v>1960.894786240223</v>
       </c>
       <c r="C11" t="n">
-        <v>1731.896832910307</v>
+        <v>1960.894786240223</v>
       </c>
       <c r="D11" t="n">
-        <v>1394.257170087672</v>
+        <v>1623.255123417589</v>
       </c>
       <c r="E11" t="n">
-        <v>1029.094953273544</v>
+        <v>1258.092906603461</v>
       </c>
       <c r="F11" t="n">
-        <v>867.7330375979697</v>
+        <v>867.7330375979698</v>
       </c>
       <c r="G11" t="n">
         <v>471.2484177558241</v>
@@ -5042,7 +5042,7 @@
         <v>260.2054441404284</v>
       </c>
       <c r="K11" t="n">
-        <v>660.8208179075382</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L11" t="n">
         <v>1210.096241442436</v>
@@ -5066,25 +5066,25 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S11" t="n">
-        <v>3537.304858089303</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="T11" t="n">
-        <v>3343.030901807208</v>
+        <v>3479.141141672294</v>
       </c>
       <c r="U11" t="n">
-        <v>3109.96340442746</v>
+        <v>3246.073644292545</v>
       </c>
       <c r="V11" t="n">
-        <v>2799.526552868006</v>
+        <v>2935.636792733091</v>
       </c>
       <c r="W11" t="n">
-        <v>2467.383933382008</v>
+        <v>2603.494173247093</v>
       </c>
       <c r="X11" t="n">
-        <v>2467.383933382008</v>
+        <v>2603.494173247093</v>
       </c>
       <c r="Y11" t="n">
-        <v>2097.870637190312</v>
+        <v>2233.980877055397</v>
       </c>
     </row>
     <row r="12">
@@ -5133,10 +5133,10 @@
         <v>1948.488331740415</v>
       </c>
       <c r="O12" t="n">
-        <v>2321.821099742403</v>
+        <v>2495.070413569004</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.402498082636</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>459.373401324476</v>
+        <v>760.2670120200631</v>
       </c>
       <c r="C13" t="n">
-        <v>459.373401324476</v>
+        <v>611.9568648762723</v>
       </c>
       <c r="D13" t="n">
-        <v>459.373401324476</v>
+        <v>482.4662612480528</v>
       </c>
       <c r="E13" t="n">
-        <v>459.373401324476</v>
+        <v>355.1792034497757</v>
       </c>
       <c r="F13" t="n">
-        <v>459.373401324476</v>
+        <v>355.1792034497757</v>
       </c>
       <c r="G13" t="n">
-        <v>311.3823316766342</v>
+        <v>207.1881338019338</v>
       </c>
       <c r="H13" t="n">
-        <v>177.6624998337882</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="I13" t="n">
         <v>73.46830195908777</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814355</v>
+        <v>75.45401965814365</v>
       </c>
       <c r="K13" t="n">
-        <v>195.5491741164735</v>
+        <v>195.5491741164736</v>
       </c>
       <c r="L13" t="n">
-        <v>399.1026573432035</v>
+        <v>399.1026573432039</v>
       </c>
       <c r="M13" t="n">
-        <v>623.0114736459855</v>
+        <v>623.0114736459858</v>
       </c>
       <c r="N13" t="n">
-        <v>847.5115364327551</v>
+        <v>847.5115364327554</v>
       </c>
       <c r="O13" t="n">
         <v>1040.400604995802</v>
       </c>
       <c r="P13" t="n">
-        <v>1184.847502163548</v>
+        <v>1184.847502163549</v>
       </c>
       <c r="Q13" t="n">
-        <v>1207.639325881398</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="R13" t="n">
-        <v>1097.326054260998</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="S13" t="n">
-        <v>1097.326054260998</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="T13" t="n">
-        <v>892.2790533497473</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="U13" t="n">
-        <v>892.2790533497473</v>
+        <v>960.4335553794771</v>
       </c>
       <c r="V13" t="n">
-        <v>892.2790533497473</v>
+        <v>960.4335553794771</v>
       </c>
       <c r="W13" t="n">
-        <v>623.4879190969028</v>
+        <v>960.4335553794771</v>
       </c>
       <c r="X13" t="n">
-        <v>459.373401324476</v>
+        <v>960.4335553794771</v>
       </c>
       <c r="Y13" t="n">
-        <v>459.373401324476</v>
+        <v>760.2670120200631</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1612.12460781309</v>
+        <v>1860.946006833127</v>
       </c>
       <c r="C14" t="n">
-        <v>1263.788126656794</v>
+        <v>1860.946006833127</v>
       </c>
       <c r="D14" t="n">
-        <v>1263.788126656794</v>
+        <v>1523.306344010493</v>
       </c>
       <c r="E14" t="n">
-        <v>1158.144127196365</v>
+        <v>1158.144127196364</v>
       </c>
       <c r="F14" t="n">
-        <v>767.7842581908732</v>
+        <v>767.7842581908731</v>
       </c>
       <c r="G14" t="n">
         <v>371.2996383487275</v>
       </c>
       <c r="H14" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="I14" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J14" t="n">
         <v>260.2054441404284</v>
@@ -5294,34 +5294,34 @@
         <v>3004.568888469954</v>
       </c>
       <c r="P14" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q14" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="R14" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="S14" t="n">
-        <v>3537.304858089303</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="T14" t="n">
-        <v>3343.030901807208</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="U14" t="n">
-        <v>3343.030901807208</v>
+        <v>3440.347600574641</v>
       </c>
       <c r="V14" t="n">
-        <v>3032.594050247753</v>
+        <v>3281.41544926779</v>
       </c>
       <c r="W14" t="n">
-        <v>2700.451430761755</v>
+        <v>2949.272829781792</v>
       </c>
       <c r="X14" t="n">
-        <v>2347.611708284791</v>
+        <v>2596.433107304828</v>
       </c>
       <c r="Y14" t="n">
-        <v>1978.098412093096</v>
+        <v>2226.919811113133</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I15" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J15" t="n">
-        <v>73.46830195908775</v>
+        <v>190.9942848817978</v>
       </c>
       <c r="K15" t="n">
-        <v>139.1391845095014</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L15" t="n">
-        <v>640.8962733943813</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M15" t="n">
-        <v>1278.402351410397</v>
+        <v>1654.347543314339</v>
       </c>
       <c r="N15" t="n">
-        <v>1948.488331740415</v>
+        <v>1849.884573044239</v>
       </c>
       <c r="O15" t="n">
-        <v>2495.070413569004</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P15" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.402498082636</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>202.7008404010408</v>
+        <v>477.2138869489436</v>
       </c>
       <c r="C16" t="n">
-        <v>202.7008404010408</v>
+        <v>477.2138869489436</v>
       </c>
       <c r="D16" t="n">
-        <v>202.7008404010408</v>
+        <v>347.723283320724</v>
       </c>
       <c r="E16" t="n">
-        <v>202.7008404010408</v>
+        <v>347.723283320724</v>
       </c>
       <c r="F16" t="n">
-        <v>202.7008404010408</v>
+        <v>221.4593716069298</v>
       </c>
       <c r="G16" t="n">
-        <v>202.7008404010408</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="H16" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="I16" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J16" t="n">
-        <v>75.45401965814341</v>
+        <v>75.45401965814368</v>
       </c>
       <c r="K16" t="n">
-        <v>195.5491741164732</v>
+        <v>195.5491741164735</v>
       </c>
       <c r="L16" t="n">
-        <v>399.1026573432034</v>
+        <v>399.1026573432038</v>
       </c>
       <c r="M16" t="n">
-        <v>623.0114736459851</v>
+        <v>623.0114736459856</v>
       </c>
       <c r="N16" t="n">
-        <v>847.5115364327546</v>
+        <v>847.5115364327552</v>
       </c>
       <c r="O16" t="n">
-        <v>1040.400604995801</v>
+        <v>1040.400604995802</v>
       </c>
       <c r="P16" t="n">
-        <v>1184.847502163548</v>
+        <v>1184.847502163549</v>
       </c>
       <c r="Q16" t="n">
-        <v>1207.639325881398</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="R16" t="n">
-        <v>1097.326054260997</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="S16" t="n">
-        <v>910.33299403194</v>
+        <v>1020.646265652342</v>
       </c>
       <c r="T16" t="n">
-        <v>705.285993120689</v>
+        <v>1020.646265652342</v>
       </c>
       <c r="U16" t="n">
-        <v>436.7592928228116</v>
+        <v>1020.646265652342</v>
       </c>
       <c r="V16" t="n">
-        <v>202.7008404010408</v>
+        <v>786.5878132305711</v>
       </c>
       <c r="W16" t="n">
-        <v>202.7008404010408</v>
+        <v>786.5878132305711</v>
       </c>
       <c r="X16" t="n">
-        <v>202.7008404010408</v>
+        <v>579.2242981166698</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.7008404010408</v>
+        <v>579.2242981166698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1875.149994147036</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C17" t="n">
         <v>1588.825123454953</v>
@@ -5501,16 +5501,16 @@
         <v>1010.046464746614</v>
       </c>
       <c r="F17" t="n">
-        <v>681.6982062053344</v>
+        <v>681.6982062053346</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2251968274005</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H17" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I17" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J17" t="n">
         <v>260.2054441404284</v>
@@ -5522,7 +5522,7 @@
         <v>1210.096241442436</v>
       </c>
       <c r="M17" t="n">
-        <v>1837.877529641654</v>
+        <v>1837.877529641655</v>
       </c>
       <c r="N17" t="n">
         <v>2461.184977863254</v>
@@ -5531,34 +5531,34 @@
         <v>3004.568888469954</v>
       </c>
       <c r="P17" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q17" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="R17" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="S17" t="n">
-        <v>3599.316468553514</v>
+        <v>3599.316468553516</v>
       </c>
       <c r="T17" t="n">
-        <v>3467.054122735632</v>
+        <v>3467.054122735633</v>
       </c>
       <c r="U17" t="n">
-        <v>3295.998235820095</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V17" t="n">
-        <v>3047.572994724852</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W17" t="n">
-        <v>2777.441985703066</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X17" t="n">
-        <v>2486.613873690314</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y17" t="n">
-        <v>2179.11218796283</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I18" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J18" t="n">
         <v>190.9942848817978</v>
       </c>
       <c r="K18" t="n">
-        <v>256.6651674322114</v>
+        <v>333.021812533325</v>
       </c>
       <c r="L18" t="n">
-        <v>758.4222563170913</v>
+        <v>467.6469595677804</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.129552442287</v>
+        <v>1105.153037583796</v>
       </c>
       <c r="N18" t="n">
-        <v>1983.215532772305</v>
+        <v>1775.239017913814</v>
       </c>
       <c r="O18" t="n">
-        <v>2529.797614600894</v>
+        <v>2321.821099742403</v>
       </c>
       <c r="P18" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.402498082636</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>491.3684010250103</v>
+        <v>534.6637978993015</v>
       </c>
       <c r="C19" t="n">
-        <v>405.0698643454312</v>
+        <v>448.3652612197225</v>
       </c>
       <c r="D19" t="n">
-        <v>337.5908711814234</v>
+        <v>380.8862680557147</v>
       </c>
       <c r="E19" t="n">
-        <v>337.5908711814234</v>
+        <v>315.6108207216491</v>
       </c>
       <c r="F19" t="n">
-        <v>273.3385699318409</v>
+        <v>251.3585194720666</v>
       </c>
       <c r="G19" t="n">
-        <v>187.3591107482106</v>
+        <v>165.3790602884363</v>
       </c>
       <c r="H19" t="n">
-        <v>115.6508893695764</v>
+        <v>115.6508893695762</v>
       </c>
       <c r="I19" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J19" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K19" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484215</v>
       </c>
       <c r="L19" t="n">
         <v>581.4353955911256</v>
       </c>
       <c r="M19" t="n">
-        <v>866.1217913098814</v>
+        <v>866.1217913098815</v>
       </c>
       <c r="N19" t="n">
         <v>1151.399433512625</v>
@@ -5698,25 +5698,25 @@
         <v>1645.558300053002</v>
       </c>
       <c r="S19" t="n">
-        <v>1520.576850288156</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="T19" t="n">
-        <v>1377.541459841117</v>
+        <v>1502.522909605963</v>
       </c>
       <c r="U19" t="n">
-        <v>1171.026370007452</v>
+        <v>1296.007819772297</v>
       </c>
       <c r="V19" t="n">
-        <v>998.9795280498928</v>
+        <v>1123.960977814738</v>
       </c>
       <c r="W19" t="n">
-        <v>792.2000042612601</v>
+        <v>917.1814540261051</v>
       </c>
       <c r="X19" t="n">
-        <v>728.5341525021245</v>
+        <v>771.8295493764156</v>
       </c>
       <c r="Y19" t="n">
-        <v>590.3792196069221</v>
+        <v>633.6746164812133</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1010.046464746614</v>
       </c>
       <c r="F20" t="n">
-        <v>681.6982062053347</v>
+        <v>681.6982062053346</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274009</v>
+        <v>347.2251968274007</v>
       </c>
       <c r="H20" t="n">
         <v>111.4054709019728</v>
@@ -5753,7 +5753,7 @@
         <v>260.2054441404284</v>
       </c>
       <c r="K20" t="n">
-        <v>660.8208179075382</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L20" t="n">
         <v>1210.096241442436</v>
@@ -5774,7 +5774,7 @@
         <v>3673.415097954389</v>
       </c>
       <c r="R20" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S20" t="n">
         <v>3599.316468553515</v>
@@ -5783,19 +5783,19 @@
         <v>3467.054122735633</v>
       </c>
       <c r="U20" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V20" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W20" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X20" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y20" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>190.9942848817978</v>
       </c>
       <c r="K21" t="n">
-        <v>518.4857520746643</v>
+        <v>256.6651674322115</v>
       </c>
       <c r="L21" t="n">
-        <v>1020.242840959544</v>
+        <v>758.4222563170914</v>
       </c>
       <c r="M21" t="n">
-        <v>1264.423847230376</v>
+        <v>1395.928334333107</v>
       </c>
       <c r="N21" t="n">
-        <v>1459.960876960276</v>
+        <v>2066.014314663125</v>
       </c>
       <c r="O21" t="n">
-        <v>2006.542958788865</v>
+        <v>2222.672700407752</v>
       </c>
       <c r="P21" t="n">
         <v>2428.220199306442</v>
@@ -5887,25 +5887,25 @@
         <v>409.6823481344559</v>
       </c>
       <c r="C22" t="n">
-        <v>409.6823481344559</v>
+        <v>323.3838114548769</v>
       </c>
       <c r="D22" t="n">
-        <v>342.203354970448</v>
+        <v>323.3838114548769</v>
       </c>
       <c r="E22" t="n">
-        <v>295.4082837709349</v>
+        <v>258.1083641208116</v>
       </c>
       <c r="F22" t="n">
-        <v>231.1559825213524</v>
+        <v>193.8560628712291</v>
       </c>
       <c r="G22" t="n">
-        <v>145.1765233377221</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H22" t="n">
-        <v>73.46830195908778</v>
+        <v>115.6508893695765</v>
       </c>
       <c r="I22" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J22" t="n">
         <v>136.2315990741175</v>
@@ -5914,10 +5914,10 @@
         <v>317.1043329484214</v>
       </c>
       <c r="L22" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911256</v>
       </c>
       <c r="M22" t="n">
-        <v>866.1217913098812</v>
+        <v>866.1217913098815</v>
       </c>
       <c r="N22" t="n">
         <v>1151.399433512625</v>
@@ -5932,7 +5932,7 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R22" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S22" t="n">
         <v>1520.576850288156</v>
@@ -5944,16 +5944,16 @@
         <v>1171.026370007451</v>
       </c>
       <c r="V22" t="n">
-        <v>998.979528049892</v>
+        <v>998.9795280498922</v>
       </c>
       <c r="W22" t="n">
-        <v>792.2000042612592</v>
+        <v>792.2000042612594</v>
       </c>
       <c r="X22" t="n">
-        <v>646.8480996115698</v>
+        <v>646.84809961157</v>
       </c>
       <c r="Y22" t="n">
-        <v>508.6931667163674</v>
+        <v>508.6931667163678</v>
       </c>
     </row>
     <row r="23">
@@ -5990,7 +5990,7 @@
         <v>260.2054441404284</v>
       </c>
       <c r="K23" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L23" t="n">
         <v>1210.096241442436</v>
@@ -6075,13 +6075,13 @@
         <v>1020.242840959544</v>
       </c>
       <c r="M24" t="n">
-        <v>1264.423847230376</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N24" t="n">
-        <v>1459.960876960276</v>
+        <v>1866.786886193078</v>
       </c>
       <c r="O24" t="n">
-        <v>2006.542958788865</v>
+        <v>2023.445271937705</v>
       </c>
       <c r="P24" t="n">
         <v>2428.220199306442</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409.6823481344555</v>
+        <v>489.1648551950678</v>
       </c>
       <c r="C25" t="n">
-        <v>323.3838114548765</v>
+        <v>402.8663185154887</v>
       </c>
       <c r="D25" t="n">
-        <v>323.3838114548765</v>
+        <v>402.8663185154887</v>
       </c>
       <c r="E25" t="n">
-        <v>265.8826498027894</v>
+        <v>337.5908711814235</v>
       </c>
       <c r="F25" t="n">
-        <v>201.6303485532068</v>
+        <v>273.338569931841</v>
       </c>
       <c r="G25" t="n">
-        <v>115.6508893695765</v>
+        <v>187.3591107482107</v>
       </c>
       <c r="H25" t="n">
-        <v>115.6508893695765</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I25" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J25" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741175</v>
       </c>
       <c r="K25" t="n">
-        <v>317.1043329484215</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L25" t="n">
         <v>581.4353955911255</v>
       </c>
       <c r="M25" t="n">
-        <v>866.1217913098814</v>
+        <v>866.1217913098812</v>
       </c>
       <c r="N25" t="n">
         <v>1151.399433512625</v>
@@ -6169,7 +6169,7 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R25" t="n">
-        <v>1645.558300053002</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S25" t="n">
         <v>1520.576850288156</v>
@@ -6181,16 +6181,16 @@
         <v>1171.026370007451</v>
       </c>
       <c r="V25" t="n">
-        <v>998.979528049892</v>
+        <v>998.9795280498921</v>
       </c>
       <c r="W25" t="n">
-        <v>792.2000042612592</v>
+        <v>871.6825113218715</v>
       </c>
       <c r="X25" t="n">
-        <v>646.8480996115698</v>
+        <v>726.3306066721821</v>
       </c>
       <c r="Y25" t="n">
-        <v>508.6931667163674</v>
+        <v>588.1756737769797</v>
       </c>
     </row>
     <row r="26">
@@ -6206,49 +6206,49 @@
         <v>1588.825123454954</v>
       </c>
       <c r="D26" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.197071096532</v>
       </c>
       <c r="E26" t="n">
         <v>1010.046464746615</v>
       </c>
       <c r="F26" t="n">
-        <v>681.6982062053348</v>
+        <v>681.6982062053353</v>
       </c>
       <c r="G26" t="n">
-        <v>347.225196827401</v>
+        <v>347.2251968274013</v>
       </c>
       <c r="H26" t="n">
-        <v>111.405470901973</v>
+        <v>111.4054709019729</v>
       </c>
       <c r="I26" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908781</v>
       </c>
       <c r="J26" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404301</v>
       </c>
       <c r="K26" t="n">
-        <v>660.8208179075382</v>
+        <v>660.8208179075398</v>
       </c>
       <c r="L26" t="n">
-        <v>1210.096241442436</v>
+        <v>1210.096241442438</v>
       </c>
       <c r="M26" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641657</v>
       </c>
       <c r="N26" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863256</v>
       </c>
       <c r="O26" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469956</v>
       </c>
       <c r="P26" t="n">
-        <v>3430.660101634156</v>
+        <v>3430.660101634157</v>
       </c>
       <c r="Q26" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.41509795439</v>
       </c>
       <c r="R26" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.41509795439</v>
       </c>
       <c r="S26" t="n">
         <v>3599.316468553516</v>
@@ -6257,19 +6257,19 @@
         <v>3467.054122735633</v>
       </c>
       <c r="U26" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820098</v>
       </c>
       <c r="V26" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724855</v>
       </c>
       <c r="W26" t="n">
         <v>2777.441985703068</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690317</v>
       </c>
       <c r="Y26" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962833</v>
       </c>
     </row>
     <row r="27">
@@ -6288,40 +6288,40 @@
         <v>664.0543578015754</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8169027961198</v>
+        <v>504.81690279612</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2823448230048</v>
+        <v>358.2823448230049</v>
       </c>
       <c r="G27" t="n">
-        <v>220.8287085867323</v>
+        <v>220.8287085867324</v>
       </c>
       <c r="H27" t="n">
         <v>119.7945316645244</v>
       </c>
       <c r="I27" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908781</v>
       </c>
       <c r="J27" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908781</v>
       </c>
       <c r="K27" t="n">
-        <v>518.4857520746643</v>
+        <v>139.1391845095015</v>
       </c>
       <c r="L27" t="n">
-        <v>653.1108991091197</v>
+        <v>640.8962733943814</v>
       </c>
       <c r="M27" t="n">
-        <v>1290.616977125136</v>
+        <v>1278.402351410397</v>
       </c>
       <c r="N27" t="n">
-        <v>1960.702957455154</v>
+        <v>1948.488331740415</v>
       </c>
       <c r="O27" t="n">
-        <v>2117.361343199781</v>
+        <v>2495.070413569004</v>
       </c>
       <c r="P27" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q27" t="n">
         <v>2657.402498082636</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>428.162724269008</v>
+        <v>409.6823481344547</v>
       </c>
       <c r="C28" t="n">
-        <v>428.162724269008</v>
+        <v>323.3838114548756</v>
       </c>
       <c r="D28" t="n">
-        <v>360.6837311050001</v>
+        <v>273.3385699318413</v>
       </c>
       <c r="E28" t="n">
-        <v>295.4082837709348</v>
+        <v>273.3385699318413</v>
       </c>
       <c r="F28" t="n">
-        <v>231.1559825213521</v>
+        <v>273.3385699318413</v>
       </c>
       <c r="G28" t="n">
-        <v>145.1765233377222</v>
+        <v>187.3591107482109</v>
       </c>
       <c r="H28" t="n">
-        <v>73.46830195908778</v>
+        <v>115.6508893695766</v>
       </c>
       <c r="I28" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908781</v>
       </c>
       <c r="J28" t="n">
         <v>136.2315990741175</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484212</v>
+        <v>317.1043329484213</v>
       </c>
       <c r="L28" t="n">
-        <v>581.4353955911253</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M28" t="n">
-        <v>866.121791309881</v>
+        <v>866.1217913098811</v>
       </c>
       <c r="N28" t="n">
         <v>1151.399433512624</v>
@@ -6403,31 +6403,31 @@
         <v>1610.290558075365</v>
       </c>
       <c r="Q28" t="n">
-        <v>1693.85996120919</v>
+        <v>1693.859961209189</v>
       </c>
       <c r="R28" t="n">
-        <v>1664.038676187555</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S28" t="n">
-        <v>1539.057226422709</v>
+        <v>1520.576850288155</v>
       </c>
       <c r="T28" t="n">
-        <v>1396.02183597567</v>
+        <v>1377.541459841116</v>
       </c>
       <c r="U28" t="n">
-        <v>1189.506746142004</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.459904184445</v>
+        <v>998.9795280498915</v>
       </c>
       <c r="W28" t="n">
-        <v>810.680380395812</v>
+        <v>792.2000042612588</v>
       </c>
       <c r="X28" t="n">
-        <v>665.3284757461222</v>
+        <v>646.8480996115692</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.1735428509199</v>
+        <v>508.6931667163666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C29" t="n">
         <v>1588.825123454954</v>
@@ -6449,13 +6449,13 @@
         <v>1010.046464746615</v>
       </c>
       <c r="F29" t="n">
-        <v>681.6982062053352</v>
+        <v>681.6982062053347</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2251968274013</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H29" t="n">
-        <v>111.4054709019733</v>
+        <v>111.4054709019729</v>
       </c>
       <c r="I29" t="n">
         <v>73.46830195908778</v>
@@ -6503,10 +6503,10 @@
         <v>2777.441985703068</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y29" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J30" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="K30" t="n">
-        <v>518.4857520746643</v>
+        <v>333.1371951879713</v>
       </c>
       <c r="L30" t="n">
-        <v>1020.242840959544</v>
+        <v>834.8942840728512</v>
       </c>
       <c r="M30" t="n">
-        <v>1264.423847230376</v>
+        <v>1472.400362088867</v>
       </c>
       <c r="N30" t="n">
-        <v>1459.960876960276</v>
+        <v>1667.937391818767</v>
       </c>
       <c r="O30" t="n">
-        <v>2006.542958788865</v>
+        <v>2214.519473647356</v>
       </c>
       <c r="P30" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q30" t="n">
         <v>2657.402498082636</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>409.682348134456</v>
+        <v>556.6438483590762</v>
       </c>
       <c r="C31" t="n">
-        <v>409.682348134456</v>
+        <v>470.3453116794971</v>
       </c>
       <c r="D31" t="n">
-        <v>402.866318515489</v>
+        <v>402.8663185154891</v>
       </c>
       <c r="E31" t="n">
-        <v>337.5908711814237</v>
+        <v>337.5908711814238</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3385699318411</v>
+        <v>273.3385699318412</v>
       </c>
       <c r="G31" t="n">
-        <v>187.3591107482108</v>
+        <v>187.3591107482109</v>
       </c>
       <c r="H31" t="n">
         <v>115.6508893695765</v>
@@ -6619,22 +6619,22 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J31" t="n">
-        <v>136.2315990741178</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K31" t="n">
-        <v>317.1043329484216</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L31" t="n">
-        <v>581.4353955911258</v>
+        <v>581.4353955911255</v>
       </c>
       <c r="M31" t="n">
-        <v>866.1217913098817</v>
+        <v>866.1217913098812</v>
       </c>
       <c r="N31" t="n">
         <v>1151.399433512625</v>
       </c>
       <c r="O31" t="n">
-        <v>1405.066081491646</v>
+        <v>1405.066081491645</v>
       </c>
       <c r="P31" t="n">
         <v>1610.290558075366</v>
@@ -6652,19 +6652,19 @@
         <v>1377.541459841117</v>
       </c>
       <c r="U31" t="n">
-        <v>1171.026370007452</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V31" t="n">
-        <v>998.9795280498923</v>
+        <v>1145.941028274513</v>
       </c>
       <c r="W31" t="n">
-        <v>792.2000042612596</v>
+        <v>939.1615044858801</v>
       </c>
       <c r="X31" t="n">
-        <v>646.8480996115701</v>
+        <v>793.8095998361905</v>
       </c>
       <c r="Y31" t="n">
-        <v>508.6931667163678</v>
+        <v>655.6546669409881</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1831.999994919983</v>
+        <v>1923.027428700809</v>
       </c>
       <c r="C32" t="n">
-        <v>1551.839409831764</v>
+        <v>1642.86684361259</v>
       </c>
       <c r="D32" t="n">
-        <v>1282.375643077207</v>
+        <v>1373.403076858032</v>
       </c>
       <c r="E32" t="n">
-        <v>985.389322331155</v>
+        <v>1074.191254183348</v>
       </c>
       <c r="F32" t="n">
-        <v>663.2053493937401</v>
+        <v>752.0072812459329</v>
       </c>
       <c r="G32" t="n">
         <v>334.8966256196711</v>
@@ -6710,10 +6710,10 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N32" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O32" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P32" t="n">
         <v>3430.660101634156</v>
@@ -6725,25 +6725,25 @@
         <v>3671.978247677241</v>
       </c>
       <c r="S32" t="n">
-        <v>3515.24197202804</v>
+        <v>3604.043903880233</v>
       </c>
       <c r="T32" t="n">
-        <v>3389.143911814022</v>
+        <v>3477.945843666215</v>
       </c>
       <c r="U32" t="n">
-        <v>3222.026808573718</v>
+        <v>3313.054242354543</v>
       </c>
       <c r="V32" t="n">
-        <v>2979.76585308234</v>
+        <v>3070.793286863165</v>
       </c>
       <c r="W32" t="n">
-        <v>2715.799129664419</v>
+        <v>2806.826563445244</v>
       </c>
       <c r="X32" t="n">
-        <v>2431.135303255532</v>
+        <v>2522.162737036357</v>
       </c>
       <c r="Y32" t="n">
-        <v>2129.797903131913</v>
+        <v>2220.825336912738</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J33" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="K33" t="n">
-        <v>256.6651674322115</v>
+        <v>400.9597691519543</v>
       </c>
       <c r="L33" t="n">
-        <v>391.2903144666668</v>
+        <v>902.7168580368342</v>
       </c>
       <c r="M33" t="n">
-        <v>1028.796392482683</v>
+        <v>1472.400362088867</v>
       </c>
       <c r="N33" t="n">
-        <v>1698.882372812701</v>
+        <v>1667.937391818767</v>
       </c>
       <c r="O33" t="n">
-        <v>2245.46445464129</v>
+        <v>2214.519473647356</v>
       </c>
       <c r="P33" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q33" t="n">
         <v>2657.402498082636</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.4938491320222</v>
+        <v>513.493849132022</v>
       </c>
       <c r="C34" t="n">
-        <v>433.3595980563079</v>
+        <v>433.3595980563077</v>
       </c>
       <c r="D34" t="n">
-        <v>372.0448904961648</v>
+        <v>372.0448904961647</v>
       </c>
       <c r="E34" t="n">
-        <v>312.9337287659644</v>
+        <v>312.9337287659643</v>
       </c>
       <c r="F34" t="n">
-        <v>254.8457131202467</v>
+        <v>254.8457131202466</v>
       </c>
       <c r="G34" t="n">
         <v>175.0305395404812</v>
@@ -6856,16 +6856,16 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J34" t="n">
-        <v>142.2732153944655</v>
+        <v>142.2732153944654</v>
       </c>
       <c r="K34" t="n">
-        <v>329.187565589117</v>
+        <v>329.1875655891172</v>
       </c>
       <c r="L34" t="n">
-        <v>599.560244552169</v>
+        <v>599.5602445521693</v>
       </c>
       <c r="M34" t="n">
-        <v>890.2882565912727</v>
+        <v>890.288256591273</v>
       </c>
       <c r="N34" t="n">
         <v>1181.607515114364</v>
@@ -6883,7 +6883,7 @@
         <v>1700.055516219649</v>
       </c>
       <c r="S34" t="n">
-        <v>1581.238352058669</v>
+        <v>1581.238352058668</v>
       </c>
       <c r="T34" t="n">
         <v>1444.367247215494</v>
@@ -6895,13 +6895,13 @@
         <v>1078.133886631999</v>
       </c>
       <c r="W34" t="n">
-        <v>877.5186484472314</v>
+        <v>877.5186484472313</v>
       </c>
       <c r="X34" t="n">
         <v>738.3310294014066</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.3403821100693</v>
+        <v>606.340382110069</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1549.9523836265</v>
       </c>
       <c r="D35" t="n">
-        <v>1280.488616871943</v>
+        <v>1280.488616871942</v>
       </c>
       <c r="E35" t="n">
-        <v>983.502296125891</v>
+        <v>983.5022961258901</v>
       </c>
       <c r="F35" t="n">
-        <v>661.3183231884761</v>
+        <v>661.3183231884752</v>
       </c>
       <c r="G35" t="n">
-        <v>333.0095994144067</v>
+        <v>333.0095994144062</v>
       </c>
       <c r="H35" t="n">
         <v>103.3541590928432</v>
@@ -6968,19 +6968,19 @@
         <v>3385.031383680126</v>
       </c>
       <c r="U35" t="n">
-        <v>3220.139782368454</v>
+        <v>3220.139782368453</v>
       </c>
       <c r="V35" t="n">
-        <v>2977.878826877076</v>
+        <v>2977.878826877075</v>
       </c>
       <c r="W35" t="n">
-        <v>2713.912103459155</v>
+        <v>2713.912103459154</v>
       </c>
       <c r="X35" t="n">
         <v>2429.248277050267</v>
       </c>
       <c r="Y35" t="n">
-        <v>2127.910876926649</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="36">
@@ -7017,16 +7017,16 @@
         <v>189.107258676533</v>
       </c>
       <c r="K36" t="n">
-        <v>516.5987258693995</v>
+        <v>405.7803414584847</v>
       </c>
       <c r="L36" t="n">
-        <v>1018.355814754279</v>
+        <v>540.4054884929401</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.813879657795</v>
+        <v>1177.911566508956</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.073850755012</v>
+        <v>1847.997546838974</v>
       </c>
       <c r="O36" t="n">
         <v>2004.655932583601</v>
@@ -7081,31 +7081,31 @@
         <v>311.046702560699</v>
       </c>
       <c r="F37" t="n">
-        <v>252.9586869149815</v>
+        <v>252.9586869149813</v>
       </c>
       <c r="G37" t="n">
-        <v>173.143513335216</v>
+        <v>173.1435133352159</v>
       </c>
       <c r="H37" t="n">
-        <v>107.5995775604464</v>
+        <v>107.5995775604467</v>
       </c>
       <c r="I37" t="n">
         <v>71.58127575382304</v>
       </c>
       <c r="J37" t="n">
-        <v>140.3861891892008</v>
+        <v>140.3861891892007</v>
       </c>
       <c r="K37" t="n">
-        <v>327.3005393838525</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L37" t="n">
-        <v>597.6732183469045</v>
+        <v>597.6732183469046</v>
       </c>
       <c r="M37" t="n">
-        <v>888.4012303860083</v>
+        <v>888.4012303860084</v>
       </c>
       <c r="N37" t="n">
-        <v>1179.720488909099</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O37" t="n">
         <v>1439.428753208468</v>
@@ -7117,13 +7117,13 @@
         <v>1740.305865566708</v>
       </c>
       <c r="R37" t="n">
-        <v>1698.168490014385</v>
+        <v>1698.168490014384</v>
       </c>
       <c r="S37" t="n">
         <v>1579.351325853404</v>
       </c>
       <c r="T37" t="n">
-        <v>1442.48022101023</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U37" t="n">
         <v>1242.129416780429</v>
@@ -7132,7 +7132,7 @@
         <v>1076.246860426734</v>
       </c>
       <c r="W37" t="n">
-        <v>875.6316222419662</v>
+        <v>875.6316222419663</v>
       </c>
       <c r="X37" t="n">
         <v>736.4440031961415</v>
@@ -7154,25 +7154,25 @@
         <v>1549.9523836265</v>
       </c>
       <c r="D38" t="n">
-        <v>1280.488616871942</v>
+        <v>1280.488616871943</v>
       </c>
       <c r="E38" t="n">
-        <v>983.5022961258906</v>
+        <v>983.502296125891</v>
       </c>
       <c r="F38" t="n">
-        <v>661.3183231884756</v>
+        <v>661.3183231884761</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0095994144065</v>
+        <v>333.0095994144071</v>
       </c>
       <c r="H38" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I38" t="n">
         <v>71.58127575382304</v>
       </c>
       <c r="J38" t="n">
-        <v>258.3184179351637</v>
+        <v>165.8541338771919</v>
       </c>
       <c r="K38" t="n">
         <v>566.4695076443015</v>
@@ -7199,7 +7199,7 @@
         <v>3579.063787691152</v>
       </c>
       <c r="S38" t="n">
-        <v>3511.129443894144</v>
+        <v>3511.129443894143</v>
       </c>
       <c r="T38" t="n">
         <v>3385.031383680126</v>
@@ -7217,7 +7217,7 @@
         <v>2429.248277050267</v>
       </c>
       <c r="Y38" t="n">
-        <v>2127.910876926648</v>
+        <v>2127.910876926649</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7257,16 @@
         <v>516.5987258693995</v>
       </c>
       <c r="L39" t="n">
-        <v>1018.355814754279</v>
+        <v>855.6836294464779</v>
       </c>
       <c r="M39" t="n">
-        <v>1262.536821025112</v>
+        <v>1493.189707462494</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.073850755012</v>
+        <v>2163.275687792512</v>
       </c>
       <c r="O39" t="n">
-        <v>2004.655932583601</v>
+        <v>2319.934073537138</v>
       </c>
       <c r="P39" t="n">
         <v>2426.333173101178</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.6068229267576</v>
+        <v>511.6068229267571</v>
       </c>
       <c r="C40" t="n">
-        <v>431.4725718510433</v>
+        <v>431.4725718510428</v>
       </c>
       <c r="D40" t="n">
-        <v>370.1578642909002</v>
+        <v>370.1578642908997</v>
       </c>
       <c r="E40" t="n">
-        <v>311.0467025606998</v>
+        <v>311.0467025606993</v>
       </c>
       <c r="F40" t="n">
-        <v>252.9586869149821</v>
+        <v>252.9586869149815</v>
       </c>
       <c r="G40" t="n">
-        <v>173.1435133352165</v>
+        <v>173.143513335216</v>
       </c>
       <c r="H40" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604465</v>
       </c>
       <c r="I40" t="n">
         <v>71.58127575382304</v>
       </c>
       <c r="J40" t="n">
-        <v>140.3861891892009</v>
+        <v>140.3861891892007</v>
       </c>
       <c r="K40" t="n">
-        <v>327.3005393838526</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L40" t="n">
-        <v>597.6732183469046</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M40" t="n">
-        <v>888.4012303860084</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N40" t="n">
-        <v>1179.7204889091</v>
+        <v>1179.720488909099</v>
       </c>
       <c r="O40" t="n">
         <v>1439.428753208468</v>
       </c>
       <c r="P40" t="n">
-        <v>1650.694846112537</v>
+        <v>1650.694846112536</v>
       </c>
       <c r="Q40" t="n">
         <v>1740.305865566708</v>
@@ -7366,16 +7366,16 @@
         <v>1242.129416780429</v>
       </c>
       <c r="V40" t="n">
-        <v>1076.246860426735</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W40" t="n">
-        <v>875.6316222419669</v>
+        <v>875.6316222419664</v>
       </c>
       <c r="X40" t="n">
-        <v>736.4440031961421</v>
+        <v>736.4440031961417</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.4533559048047</v>
+        <v>604.4533559048042</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1830.11296871472</v>
+        <v>1830.112968714719</v>
       </c>
       <c r="C41" t="n">
-        <v>1549.952383626501</v>
+        <v>1549.9523836265</v>
       </c>
       <c r="D41" t="n">
-        <v>1280.488616871943</v>
+        <v>1280.488616871942</v>
       </c>
       <c r="E41" t="n">
-        <v>983.5022961258915</v>
+        <v>983.5022961258906</v>
       </c>
       <c r="F41" t="n">
-        <v>661.3183231884765</v>
+        <v>661.3183231884753</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0095994144068</v>
+        <v>333.0095994144062</v>
       </c>
       <c r="H41" t="n">
         <v>103.3541590928433</v>
       </c>
       <c r="I41" t="n">
-        <v>71.58127575382308</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="J41" t="n">
-        <v>165.8541338771937</v>
+        <v>258.3184179351637</v>
       </c>
       <c r="K41" t="n">
-        <v>566.4695076443033</v>
+        <v>566.469507644302</v>
       </c>
       <c r="L41" t="n">
-        <v>1115.744931179201</v>
+        <v>1115.7449311792</v>
       </c>
       <c r="M41" t="n">
-        <v>1743.52621937842</v>
+        <v>1743.526219378419</v>
       </c>
       <c r="N41" t="n">
-        <v>2366.833667600019</v>
+        <v>2366.833667600018</v>
       </c>
       <c r="O41" t="n">
-        <v>2910.21757820672</v>
+        <v>2910.217578206718</v>
       </c>
       <c r="P41" t="n">
-        <v>3336.308791370921</v>
+        <v>3336.30879137092</v>
       </c>
       <c r="Q41" t="n">
-        <v>3579.063787691154</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="R41" t="n">
-        <v>3579.063787691154</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="S41" t="n">
-        <v>3511.129443894145</v>
+        <v>3511.129443894144</v>
       </c>
       <c r="T41" t="n">
-        <v>3385.031383680127</v>
+        <v>3385.031383680126</v>
       </c>
       <c r="U41" t="n">
-        <v>3220.139782368456</v>
+        <v>3220.139782368454</v>
       </c>
       <c r="V41" t="n">
-        <v>2977.878826877078</v>
+        <v>2977.878826877076</v>
       </c>
       <c r="W41" t="n">
-        <v>2713.912103459156</v>
+        <v>2713.912103459155</v>
       </c>
       <c r="X41" t="n">
-        <v>2429.248277050269</v>
+        <v>2429.248277050268</v>
       </c>
       <c r="Y41" t="n">
-        <v>2127.91087692665</v>
+        <v>2127.910876926649</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I42" t="n">
-        <v>71.58127575382308</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="J42" t="n">
         <v>189.1072586765331</v>
@@ -7494,16 +7494,16 @@
         <v>516.5987258693996</v>
       </c>
       <c r="L42" t="n">
-        <v>1018.355814754279</v>
+        <v>651.223872903855</v>
       </c>
       <c r="M42" t="n">
-        <v>1262.536821025112</v>
+        <v>1288.729950919871</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.073850755012</v>
+        <v>1958.815931249889</v>
       </c>
       <c r="O42" t="n">
-        <v>2004.655932583601</v>
+        <v>2115.474316994515</v>
       </c>
       <c r="P42" t="n">
         <v>2426.333173101178</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.6068229267579</v>
+        <v>511.6068229267577</v>
       </c>
       <c r="C43" t="n">
-        <v>431.4725718510436</v>
+        <v>431.4725718510434</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642909005</v>
+        <v>370.1578642909002</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606999</v>
+        <v>311.0467025606998</v>
       </c>
       <c r="F43" t="n">
-        <v>252.9586869149821</v>
+        <v>252.958686914982</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1435133352166</v>
+        <v>173.1435133352165</v>
       </c>
       <c r="H43" t="n">
         <v>107.599577560447</v>
       </c>
       <c r="I43" t="n">
-        <v>71.58127575382308</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="J43" t="n">
-        <v>140.3861891892019</v>
+        <v>140.3861891892007</v>
       </c>
       <c r="K43" t="n">
-        <v>327.3005393838536</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L43" t="n">
-        <v>597.6732183469055</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M43" t="n">
-        <v>888.4012303860093</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N43" t="n">
         <v>1179.720488909101</v>
@@ -7606,13 +7606,13 @@
         <v>1076.246860426735</v>
       </c>
       <c r="W43" t="n">
-        <v>875.6316222419672</v>
+        <v>875.631622241967</v>
       </c>
       <c r="X43" t="n">
-        <v>736.4440031961425</v>
+        <v>736.4440031961423</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.453355904805</v>
+        <v>604.4533559048048</v>
       </c>
     </row>
     <row r="44">
@@ -7628,34 +7628,34 @@
         <v>1549.9523836265</v>
       </c>
       <c r="D44" t="n">
-        <v>1280.488616871942</v>
+        <v>1280.488616871943</v>
       </c>
       <c r="E44" t="n">
-        <v>983.5022961258906</v>
+        <v>983.502296125891</v>
       </c>
       <c r="F44" t="n">
-        <v>661.3183231884757</v>
+        <v>661.3183231884758</v>
       </c>
       <c r="G44" t="n">
         <v>333.0095994144067</v>
       </c>
       <c r="H44" t="n">
-        <v>103.3541590928432</v>
+        <v>103.3541590928433</v>
       </c>
       <c r="I44" t="n">
         <v>71.58127575382305</v>
       </c>
       <c r="J44" t="n">
-        <v>165.8541338771914</v>
+        <v>165.8541338771923</v>
       </c>
       <c r="K44" t="n">
-        <v>566.4695076443012</v>
+        <v>566.469507644302</v>
       </c>
       <c r="L44" t="n">
-        <v>1115.744931179199</v>
+        <v>1115.7449311792</v>
       </c>
       <c r="M44" t="n">
-        <v>1743.526219378418</v>
+        <v>1743.526219378419</v>
       </c>
       <c r="N44" t="n">
         <v>2366.833667600018</v>
@@ -7682,16 +7682,16 @@
         <v>3220.139782368455</v>
       </c>
       <c r="V44" t="n">
-        <v>2977.878826877076</v>
+        <v>2977.878826877077</v>
       </c>
       <c r="W44" t="n">
         <v>2713.912103459155</v>
       </c>
       <c r="X44" t="n">
-        <v>2429.248277050267</v>
+        <v>2429.248277050268</v>
       </c>
       <c r="Y44" t="n">
-        <v>2127.910876926648</v>
+        <v>2127.910876926649</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>985.5547705386888</v>
+        <v>985.554770538689</v>
       </c>
       <c r="C45" t="n">
-        <v>811.1017412575618</v>
+        <v>811.101741257562</v>
       </c>
       <c r="D45" t="n">
-        <v>662.1673315963105</v>
+        <v>662.1673315963108</v>
       </c>
       <c r="E45" t="n">
-        <v>502.9298765908551</v>
+        <v>502.9298765908552</v>
       </c>
       <c r="F45" t="n">
         <v>356.3953186177401</v>
@@ -7725,25 +7725,25 @@
         <v>71.58127575382305</v>
       </c>
       <c r="J45" t="n">
-        <v>189.1072586765331</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="K45" t="n">
-        <v>516.5987258693997</v>
+        <v>331.2501689827066</v>
       </c>
       <c r="L45" t="n">
-        <v>1018.35581475428</v>
+        <v>833.0072578675865</v>
       </c>
       <c r="M45" t="n">
-        <v>1262.536821025112</v>
+        <v>1470.513335883602</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.073850755012</v>
+        <v>1666.050365613502</v>
       </c>
       <c r="O45" t="n">
-        <v>2004.655932583601</v>
+        <v>2212.632447442091</v>
       </c>
       <c r="P45" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q45" t="n">
         <v>2655.515471877372</v>
@@ -7764,7 +7764,7 @@
         <v>1823.619263257445</v>
       </c>
       <c r="W45" t="n">
-        <v>1569.381906529243</v>
+        <v>1569.381906529244</v>
       </c>
       <c r="X45" t="n">
         <v>1361.530406323711</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.6068229267571</v>
+        <v>511.6068229267576</v>
       </c>
       <c r="C46" t="n">
-        <v>431.4725718510428</v>
+        <v>431.4725718510433</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642908997</v>
+        <v>370.1578642909002</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025606993</v>
+        <v>311.0467025606997</v>
       </c>
       <c r="F46" t="n">
-        <v>252.9586869149816</v>
+        <v>252.958686914982</v>
       </c>
       <c r="G46" t="n">
-        <v>173.1435133352161</v>
+        <v>173.1435133352165</v>
       </c>
       <c r="H46" t="n">
-        <v>107.5995775604469</v>
+        <v>107.599577560447</v>
       </c>
       <c r="I46" t="n">
         <v>71.58127575382305</v>
       </c>
       <c r="J46" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892008</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838525</v>
+        <v>327.3005393838523</v>
       </c>
       <c r="L46" t="n">
-        <v>597.6732183469046</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M46" t="n">
-        <v>888.401230386008</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N46" t="n">
         <v>1179.720488909099</v>
@@ -7843,13 +7843,13 @@
         <v>1076.246860426735</v>
       </c>
       <c r="W46" t="n">
-        <v>875.6316222419666</v>
+        <v>875.6316222419669</v>
       </c>
       <c r="X46" t="n">
-        <v>736.4440031961419</v>
+        <v>736.4440031961421</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.4533559048042</v>
+        <v>604.4533559048047</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,19 +8298,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,13 +8544,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.377921277065411</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>218.863012381173</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>35.0779808402927</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599052</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.377921277065383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>462.2693307588669</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>35.0779808402927</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599052</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>77.12792434455915</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>382.0699305269491</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599052</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>68.40701148213751</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>100.1498983178293</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>68.40701148213751</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>301.3897250552508</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720755</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>206.5250066087096</v>
+        <v>35.07798084029224</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>195.9575865439089</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>68.40701148213751</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928329</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.798708171483</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>397.1974132813302</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>77.12792434455898</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>152.5274749813515</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>68.40701148213773</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>75.69834844684978</v>
       </c>
       <c r="K38" t="n">
-        <v>230.7471458459407</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,19 +10905,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>206.5250066087102</v>
       </c>
       <c r="M39" t="n">
-        <v>68.40701148213773</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>75.69834844685158</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>230.7471458459412</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,19 +11142,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>68.40701148213773</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>206.52500660871</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>75.69834844684925</v>
+        <v>75.69834844685023</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>195.957586543909</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>68.40701148213711</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>91.95883633018357</v>
       </c>
       <c r="C11" t="n">
         <v>344.8531163447326</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>226.7079737966174</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>134.749137466434</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>159.4122047556623</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8270456723529</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1956975919374</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0141872202942</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>125.0012725966563</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>103.1522558959534</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.2101389041962</v>
       </c>
       <c r="S13" t="n">
         <v>185.1231296267667</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>202.9965309021383</v>
       </c>
       <c r="U13" t="n">
-        <v>265.8414332948985</v>
+        <v>21.10772049799598</v>
       </c>
       <c r="V13" t="n">
         <v>231.717867897553</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>266.103222910316</v>
       </c>
       <c r="X13" t="n">
-        <v>42.81650736805969</v>
+        <v>205.2898799627622</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.1648779258198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>344.8531163447326</v>
       </c>
       <c r="D14" t="n">
-        <v>334.2632661944081</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>256.9230351801618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>98.94929161302588</v>
+        <v>98.94929161302574</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>134.749137466434</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>192.3312167192736</v>
       </c>
       <c r="U14" t="n">
-        <v>230.7368224059508</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>149.9896532500777</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.4122047556625</v>
+        <v>58.42189769961333</v>
       </c>
       <c r="C16" t="n">
-        <v>146.827045672353</v>
+        <v>146.8270456723529</v>
       </c>
       <c r="D16" t="n">
-        <v>128.1956975919375</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>126.0141872202943</v>
+        <v>126.0141872202942</v>
       </c>
       <c r="F16" t="n">
-        <v>125.0012725966564</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.5111589513637</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.442420466884329</v>
+        <v>132.3826335244175</v>
       </c>
       <c r="I16" t="n">
-        <v>103.1522558959535</v>
+        <v>103.1522558959534</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.2101389041962</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>202.9965309021383</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>265.8414332948985</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>266.1032229103162</v>
+        <v>266.103222910316</v>
       </c>
       <c r="X16" t="n">
-        <v>205.2898799627623</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.16487792582</v>
+        <v>198.1648779258198</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>64.62269286072457</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>21.7602499551765</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>80.86919236164825</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>85.43555131278329</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>66.8042032323678</v>
       </c>
       <c r="E22" t="n">
-        <v>18.29557237320663</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>78.68768199000583</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76076153638382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80420323236781</v>
+        <v>66.8042032323678</v>
       </c>
       <c r="E25" t="n">
-        <v>7.696542825158416</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>70.99113916484797</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>78.68768199000573</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43555131278335</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>17.25941412456391</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>64.62269286072467</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>63.60977823708674</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76076153638388</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.29557237320849</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>85.43555131278329</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>60.05633390959043</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>145.4918852223757</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>986300.2407105886</v>
+        <v>986300.2407105888</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>986300.2407105883</v>
+        <v>986300.2407105888</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389275</v>
@@ -26320,40 +26320,40 @@
         <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
-        <v>319104.7129008705</v>
+        <v>319104.7129008707</v>
       </c>
       <c r="F2" t="n">
-        <v>319104.7129008705</v>
+        <v>319104.7129008707</v>
       </c>
       <c r="G2" t="n">
-        <v>367897.4840785257</v>
+        <v>367897.4840785259</v>
       </c>
       <c r="H2" t="n">
-        <v>367897.4840785257</v>
+        <v>367897.4840785254</v>
       </c>
       <c r="I2" t="n">
-        <v>367897.4840785254</v>
+        <v>367897.4840785255</v>
       </c>
       <c r="J2" t="n">
-        <v>367897.4840785257</v>
+        <v>367897.4840785259</v>
       </c>
       <c r="K2" t="n">
         <v>367897.4840785257</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="M2" t="n">
         <v>369468.7964389269</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389269</v>
       </c>
       <c r="O2" t="n">
         <v>369468.7964389267</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389269</v>
+        <v>369468.796438927</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690849.420014675</v>
+        <v>690849.4200146752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49113.19548765581</v>
+        <v>49113.19548765566</v>
       </c>
       <c r="H3" t="n">
-        <v>7.72201929066796e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79395.76294012611</v>
+        <v>79395.76294012625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53995.30968591674</v>
+        <v>53995.30968591666</v>
       </c>
       <c r="M3" t="n">
-        <v>162917.5281914782</v>
+        <v>162917.5281914783</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034101999</v>
+        <v>16335.82034101991</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>85777.46094060861</v>
       </c>
       <c r="F4" t="n">
-        <v>85777.46094060848</v>
+        <v>85777.46094060862</v>
       </c>
       <c r="G4" t="n">
         <v>147816.3730406428</v>
@@ -26436,16 +26436,16 @@
         <v>147816.3730406427</v>
       </c>
       <c r="I4" t="n">
-        <v>147816.3730406428</v>
+        <v>147816.3730406427</v>
       </c>
       <c r="J4" t="n">
+        <v>147816.3730406427</v>
+      </c>
+      <c r="K4" t="n">
         <v>147816.3730406426</v>
       </c>
-      <c r="K4" t="n">
-        <v>147816.3730406428</v>
-      </c>
       <c r="L4" t="n">
-        <v>149824.4466330966</v>
+        <v>149824.4466330967</v>
       </c>
       <c r="M4" t="n">
         <v>152485.3204137545</v>
@@ -26479,19 +26479,19 @@
         <v>70367.55973007939</v>
       </c>
       <c r="F5" t="n">
-        <v>70367.55973007937</v>
+        <v>70367.55973007939</v>
       </c>
       <c r="G5" t="n">
-        <v>75528.68126939403</v>
+        <v>75528.68126939406</v>
       </c>
       <c r="H5" t="n">
-        <v>75528.68126939404</v>
+        <v>75528.68126939406</v>
       </c>
       <c r="I5" t="n">
-        <v>75528.68126939404</v>
+        <v>75528.68126939406</v>
       </c>
       <c r="J5" t="n">
-        <v>75528.68126939404</v>
+        <v>75528.68126939406</v>
       </c>
       <c r="K5" t="n">
         <v>75528.68126939404</v>
@@ -26506,7 +26506,7 @@
         <v>74607.58442655984</v>
       </c>
       <c r="O5" t="n">
-        <v>74607.58442655987</v>
+        <v>74607.58442655986</v>
       </c>
       <c r="P5" t="n">
         <v>74607.58442655986</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105647.5925616527</v>
+        <v>-105647.5925616528</v>
       </c>
       <c r="C6" t="n">
         <v>-24878.16103010502</v>
       </c>
       <c r="D6" t="n">
-        <v>-24878.1610301049</v>
+        <v>-24878.16103010496</v>
       </c>
       <c r="E6" t="n">
-        <v>-527889.7277844925</v>
+        <v>-528169.5282485929</v>
       </c>
       <c r="F6" t="n">
-        <v>162959.6922301828</v>
+        <v>162679.8917660824</v>
       </c>
       <c r="G6" t="n">
-        <v>95439.23428083307</v>
+        <v>95430.50476772011</v>
       </c>
       <c r="H6" t="n">
-        <v>144552.4297684889</v>
+        <v>144543.7002553753</v>
       </c>
       <c r="I6" t="n">
-        <v>144552.4297684886</v>
+        <v>144543.7002553754</v>
       </c>
       <c r="J6" t="n">
-        <v>65156.66682836293</v>
+        <v>65147.93731524951</v>
       </c>
       <c r="K6" t="n">
-        <v>144552.429768489</v>
+        <v>144543.7002553756</v>
       </c>
       <c r="L6" t="n">
-        <v>89607.31577735276</v>
+        <v>89607.31577735305</v>
       </c>
       <c r="M6" t="n">
-        <v>-20541.63659286562</v>
+        <v>-20541.63659286565</v>
       </c>
       <c r="N6" t="n">
-        <v>142375.891598613</v>
+        <v>142375.8915986126</v>
       </c>
       <c r="O6" t="n">
-        <v>126040.0712575923</v>
+        <v>126040.0712575924</v>
       </c>
       <c r="P6" t="n">
-        <v>142375.8915986125</v>
+        <v>142375.8915986126</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="F2" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="G2" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="H2" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="I2" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="J2" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="K2" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="L2" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="M2" t="n">
         <v>87.91391253367071</v>
       </c>
       <c r="N2" t="n">
+        <v>87.91391253367071</v>
+      </c>
+      <c r="O2" t="n">
+        <v>87.91391253367068</v>
+      </c>
+      <c r="P2" t="n">
         <v>87.9139125336707</v>
-      </c>
-      <c r="O2" t="n">
-        <v>87.91391253367065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275769</v>
+        <v>587.843125727577</v>
       </c>
       <c r="F3" t="n">
         <v>587.843125727577</v>
@@ -26777,7 +26777,7 @@
         <v>587.843125727577</v>
       </c>
       <c r="P3" t="n">
-        <v>587.8431257275772</v>
+        <v>587.843125727577</v>
       </c>
     </row>
     <row r="4">
@@ -26799,10 +26799,10 @@
         <v>918.3537744885971</v>
       </c>
       <c r="F4" t="n">
-        <v>918.353774488597</v>
+        <v>918.3537744885972</v>
       </c>
       <c r="G4" t="n">
-        <v>918.353774488597</v>
+        <v>918.3537744885972</v>
       </c>
       <c r="H4" t="n">
         <v>918.3537744885972</v>
@@ -26811,7 +26811,7 @@
         <v>918.3537744885972</v>
       </c>
       <c r="J4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885975</v>
       </c>
       <c r="K4" t="n">
         <v>918.3537744885972</v>
@@ -26826,7 +26826,7 @@
         <v>894.765946922788</v>
       </c>
       <c r="O4" t="n">
-        <v>894.7659469227884</v>
+        <v>894.7659469227881</v>
       </c>
       <c r="P4" t="n">
         <v>894.7659469227881</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.39149435956976</v>
+        <v>61.39149435956958</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.4197754262749</v>
+        <v>20.41977542627492</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.49413710739593</v>
+        <v>67.49413710739583</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275769</v>
+        <v>587.843125727577</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956976</v>
+        <v>61.39149435956958</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.4197754262749</v>
+        <v>20.41977542627492</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>185.9922493601736</v>
+        <v>201.2949868753087</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8130752226253</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>48.72256774449465</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>38.23792762219048</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27588,7 +27588,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>192.3884445891958</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>207.0389011273226</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27667,7 +27667,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>27.43761039396884</v>
+        <v>159.2631604746967</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>47.2544399028796</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>192.3884445891957</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>381.7025041237114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,25 +27929,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>133.8150517722418</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>225.5989815356871</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>37.22501299855256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>178.3269633122123</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="C11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="D11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="E11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="F11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="G11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="I11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.422481774376195</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="T11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="U11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="V11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="W11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="X11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="C13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="D13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="E13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="F13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="G13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="H13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="I13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="J13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="L13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="M13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="N13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="O13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="P13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="R13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="S13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="T13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="U13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="V13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="W13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="X13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="C14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="D14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="E14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="F14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="G14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="I14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="T14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="U14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="V14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="W14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="X14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="C16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="D16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="E16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="F16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="G16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="H16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="I16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="J16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="L16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="M16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="N16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="O16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="P16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="R16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="S16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="T16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="U16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="V16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="W16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="X16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627498</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="C17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="D17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="E17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="F17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="G17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="H17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="I17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="T17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="U17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="V17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="W17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="X17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="C19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="D19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="E19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="F19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="G19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="H19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="I19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="J19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="K19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="L19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="M19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="N19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="O19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="P19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="R19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="S19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="T19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="U19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="V19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="W19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="X19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584456</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="C20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="D20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="E20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="F20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="G20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="H20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="I20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="T20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="U20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="V20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="W20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="X20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="C22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="D22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="E22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="F22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="G22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="H22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="I22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="J22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="K22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="L22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="M22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="N22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="O22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="P22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="R22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="S22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="T22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="U22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="V22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="W22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="X22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="C23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="D23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="E23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="F23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="G23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="H23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="I23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="T23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="U23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="V23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="W23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="X23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="D25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="E25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="F25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="G25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="H25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="I25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="J25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="K25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="L25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="M25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="N25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="O25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="P25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="R25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="S25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="T25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="U25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="V25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="W25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="X25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="C26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="D26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="E26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="F26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="G26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="H26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="I26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="T26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="U26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="V26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="W26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="X26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="C28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="D28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="E28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="F28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="G28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="H28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="I28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="J28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="K28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="L28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="M28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="N28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="O28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="P28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="R28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="S28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="T28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="U28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="V28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="W28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="X28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858445</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="C29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="D29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="E29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="F29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="G29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="H29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="I29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="T29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="U29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="V29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="W29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="X29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="C31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="D31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="E31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="F31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="G31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="H31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="I31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="J31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="K31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="L31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="M31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="N31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="O31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="P31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="R31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="S31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="T31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="U31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="V31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="W31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="X31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C32" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D32" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E32" t="n">
-        <v>87.91391253367071</v>
+        <v>85.71066562432435</v>
       </c>
       <c r="F32" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G32" t="n">
-        <v>87.91391253367071</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I32" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T32" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U32" t="n">
-        <v>85.71066562432466</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V32" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W32" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X32" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="K34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="L34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="M34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="N34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="O34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="P34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="R34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="S34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="35">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J43" t="n">
-        <v>87.91391253367188</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="K43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="L43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="M43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="N43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367181</v>
       </c>
       <c r="O43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="P43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="R43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="S43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.422481774376109</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="K46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="L46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="M46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="N46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="O46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="P46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="R46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="S46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
   </sheetData>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.363188445135985</v>
+        <v>2.363188445135986</v>
       </c>
       <c r="H11" t="n">
-        <v>24.20200366374892</v>
+        <v>24.20200366374893</v>
       </c>
       <c r="I11" t="n">
-        <v>91.10682253110518</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J11" t="n">
-        <v>200.5726652953605</v>
+        <v>200.5726652953606</v>
       </c>
       <c r="K11" t="n">
-        <v>300.6064321779669</v>
+        <v>300.606432177967</v>
       </c>
       <c r="L11" t="n">
         <v>372.9288605557974</v>
       </c>
       <c r="M11" t="n">
-        <v>414.9552130669844</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N11" t="n">
-        <v>421.6696222367271</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O11" t="n">
-        <v>398.1706671354061</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P11" t="n">
-        <v>339.8294523961114</v>
+        <v>339.8294523961115</v>
       </c>
       <c r="Q11" t="n">
         <v>255.1977662046789</v>
@@ -31786,13 +31786,13 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S11" t="n">
-        <v>53.85115669353632</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T11" t="n">
         <v>10.34485741858278</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1890550756108788</v>
+        <v>0.1890550756108789</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I12" t="n">
-        <v>43.53366544303282</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J12" t="n">
         <v>119.4597053896013</v>
@@ -31844,34 +31844,34 @@
         <v>204.1756637727566</v>
       </c>
       <c r="L12" t="n">
-        <v>274.5393767843745</v>
+        <v>274.5393767843746</v>
       </c>
       <c r="M12" t="n">
-        <v>320.3745035215293</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N12" t="n">
-        <v>328.8538633256564</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O12" t="n">
-        <v>300.8370381258855</v>
+        <v>300.8370381258856</v>
       </c>
       <c r="P12" t="n">
         <v>241.4482453578042</v>
       </c>
       <c r="Q12" t="n">
-        <v>161.4017578412773</v>
+        <v>161.4017578412774</v>
       </c>
       <c r="R12" t="n">
-        <v>78.50478573395831</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S12" t="n">
         <v>23.48599657977629</v>
       </c>
       <c r="T12" t="n">
-        <v>5.096488986260782</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08318534798031751</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.06004498082022</v>
+        <v>1.060044980820221</v>
       </c>
       <c r="H13" t="n">
-        <v>9.424763556747058</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I13" t="n">
-        <v>31.87844360502991</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J13" t="n">
-        <v>74.94518014398959</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K13" t="n">
         <v>123.1579532262038</v>
@@ -31935,22 +31935,22 @@
         <v>149.8325396526618</v>
       </c>
       <c r="P13" t="n">
-        <v>128.2076220439291</v>
+        <v>128.2076220439292</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.76431198486411</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R13" t="n">
-        <v>47.66347704669827</v>
+        <v>47.66347704669828</v>
       </c>
       <c r="S13" t="n">
-        <v>18.47369298393056</v>
+        <v>18.47369298393057</v>
       </c>
       <c r="T13" t="n">
-        <v>4.529283099868214</v>
+        <v>4.529283099868215</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05782063531746664</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.363188445135987</v>
+        <v>2.363188445135986</v>
       </c>
       <c r="H44" t="n">
         <v>24.20200366374893</v>
       </c>
       <c r="I44" t="n">
-        <v>91.10682253110522</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J44" t="n">
-        <v>200.5726652953607</v>
+        <v>200.5726652953606</v>
       </c>
       <c r="K44" t="n">
-        <v>300.6064321779671</v>
+        <v>300.606432177967</v>
       </c>
       <c r="L44" t="n">
-        <v>372.9288605557976</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M44" t="n">
-        <v>414.9552130669847</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N44" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O44" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P44" t="n">
-        <v>339.8294523961116</v>
+        <v>339.8294523961115</v>
       </c>
       <c r="Q44" t="n">
-        <v>255.197766204679</v>
+        <v>255.1977662046789</v>
       </c>
       <c r="R44" t="n">
-        <v>148.4466361667736</v>
+        <v>148.4466361667735</v>
       </c>
       <c r="S44" t="n">
-        <v>53.85115669353636</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T44" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U44" t="n">
         <v>0.1890550756108789</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.264417289300827</v>
+        <v>1.264417289300826</v>
       </c>
       <c r="H45" t="n">
-        <v>12.21160908351062</v>
+        <v>12.21160908351061</v>
       </c>
       <c r="I45" t="n">
-        <v>43.53366544303285</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J45" t="n">
-        <v>119.4597053896014</v>
+        <v>119.4597053896013</v>
       </c>
       <c r="K45" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L45" t="n">
-        <v>274.5393767843747</v>
+        <v>274.5393767843746</v>
       </c>
       <c r="M45" t="n">
-        <v>320.3745035215296</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N45" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O45" t="n">
-        <v>300.8370381258857</v>
+        <v>300.8370381258856</v>
       </c>
       <c r="P45" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q45" t="n">
-        <v>161.4017578412775</v>
+        <v>161.4017578412774</v>
       </c>
       <c r="R45" t="n">
-        <v>78.50478573395836</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S45" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T45" t="n">
-        <v>5.096488986260786</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08318534798031757</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H46" t="n">
-        <v>9.424763556747063</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I46" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J46" t="n">
-        <v>74.94518014398963</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K46" t="n">
         <v>123.1579532262038</v>
       </c>
       <c r="L46" t="n">
-        <v>157.5997783303082</v>
+        <v>157.5997783303081</v>
       </c>
       <c r="M46" t="n">
-        <v>166.1668691298461</v>
+        <v>166.166869129846</v>
       </c>
       <c r="N46" t="n">
-        <v>162.2157923831527</v>
+        <v>162.2157923831526</v>
       </c>
       <c r="O46" t="n">
-        <v>149.8325396526619</v>
+        <v>149.8325396526618</v>
       </c>
       <c r="P46" t="n">
         <v>128.2076220439292</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.76431198486415</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R46" t="n">
-        <v>47.66347704669829</v>
+        <v>47.66347704669828</v>
       </c>
       <c r="S46" t="n">
         <v>18.47369298393057</v>
       </c>
       <c r="T46" t="n">
-        <v>4.529283099868216</v>
+        <v>4.529283099868215</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05782063531746667</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,13 +35264,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>188.623375940748</v>
+        <v>188.6233759407481</v>
       </c>
       <c r="K11" t="n">
         <v>404.6619937041511</v>
       </c>
       <c r="L11" t="n">
-        <v>554.8236601362605</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M11" t="n">
-        <v>634.1225133325441</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N11" t="n">
-        <v>629.6034830521203</v>
+        <v>629.6034830521205</v>
       </c>
       <c r="O11" t="n">
-        <v>548.8726369764647</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P11" t="n">
-        <v>430.3951648123245</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q11" t="n">
         <v>245.2070669901341</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>66.3342247983976</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L12" t="n">
         <v>506.8253423079595</v>
@@ -35501,13 +35501,13 @@
         <v>676.8545255858767</v>
       </c>
       <c r="O12" t="n">
-        <v>377.1038060626141</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P12" t="n">
-        <v>107.4738379434739</v>
+        <v>142.5518187837667</v>
       </c>
       <c r="Q12" t="n">
-        <v>231.4972714911049</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.005775453591767</v>
+        <v>2.005775453591809</v>
       </c>
       <c r="K13" t="n">
         <v>121.3082368265959</v>
@@ -35574,19 +35574,19 @@
         <v>205.6095790168992</v>
       </c>
       <c r="M13" t="n">
-        <v>226.1705215179615</v>
+        <v>226.1705215179616</v>
       </c>
       <c r="N13" t="n">
-        <v>226.7677401886561</v>
+        <v>226.7677401886562</v>
       </c>
       <c r="O13" t="n">
-        <v>194.8374429929764</v>
+        <v>194.8374429929765</v>
       </c>
       <c r="P13" t="n">
         <v>145.9059567350976</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.02204415944468</v>
+        <v>23.02204415944472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>430.3951648123246</v>
       </c>
       <c r="Q14" t="n">
-        <v>245.2070669901341</v>
+        <v>245.2070669901346</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K15" t="n">
-        <v>66.33422479839766</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L15" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M15" t="n">
-        <v>643.9455333495109</v>
+        <v>640.509800358378</v>
       </c>
       <c r="N15" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O15" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P15" t="n">
-        <v>142.5518187837667</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.41998375525586</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.005775453591667</v>
+        <v>2.005775453591809</v>
       </c>
       <c r="K16" t="n">
-        <v>121.3082368265958</v>
+        <v>121.3082368265959</v>
       </c>
       <c r="L16" t="n">
-        <v>205.6095790168991</v>
+        <v>205.6095790168992</v>
       </c>
       <c r="M16" t="n">
-        <v>226.1705215179614</v>
+        <v>226.1705215179616</v>
       </c>
       <c r="N16" t="n">
-        <v>226.767740188656</v>
+        <v>226.7677401886562</v>
       </c>
       <c r="O16" t="n">
-        <v>194.8374429929763</v>
+        <v>194.8374429929765</v>
       </c>
       <c r="P16" t="n">
-        <v>145.9059567350975</v>
+        <v>145.9059567350976</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02204415944457</v>
+        <v>23.02204415944472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>554.8236601362606</v>
       </c>
       <c r="M17" t="n">
-        <v>634.1225133325438</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N17" t="n">
         <v>629.6034830521205</v>
@@ -35902,7 +35902,7 @@
         <v>430.3951648123246</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.2070669901341</v>
+        <v>245.2070669901346</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K18" t="n">
-        <v>66.33422479839766</v>
+        <v>143.4621491429568</v>
       </c>
       <c r="L18" t="n">
-        <v>506.8253423079595</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M18" t="n">
-        <v>560.3104001264602</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N18" t="n">
         <v>676.8545255858767</v>
@@ -35981,7 +35981,7 @@
         <v>107.473837943474</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.41998375525586</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.39726981316143</v>
+        <v>63.39726981316139</v>
       </c>
       <c r="K19" t="n">
         <v>182.6997311861655</v>
       </c>
       <c r="L19" t="n">
-        <v>267.0010733764689</v>
+        <v>267.0010733764688</v>
       </c>
       <c r="M19" t="n">
         <v>287.5620158775312</v>
@@ -36054,13 +36054,13 @@
         <v>288.1592345482258</v>
       </c>
       <c r="O19" t="n">
-        <v>256.2289373525461</v>
+        <v>256.228937352546</v>
       </c>
       <c r="P19" t="n">
-        <v>207.2974510946673</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.41353851901434</v>
+        <v>84.4135385190143</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>430.3951648123246</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.2070669901341</v>
+        <v>245.2070669901346</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K21" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L21" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M21" t="n">
-        <v>246.6474810816486</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N21" t="n">
-        <v>197.5121512423232</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O21" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P21" t="n">
-        <v>425.9366065834112</v>
+        <v>207.6237362613033</v>
       </c>
       <c r="Q21" t="n">
         <v>231.497271491105</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.39726981316137</v>
+        <v>63.39726981316139</v>
       </c>
       <c r="K22" t="n">
         <v>182.6997311861655</v>
@@ -36297,7 +36297,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.41353851901428</v>
+        <v>84.4135385190143</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>430.3951648123246</v>
       </c>
       <c r="Q23" t="n">
-        <v>245.2070669901346</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>506.8253423079595</v>
       </c>
       <c r="M24" t="n">
-        <v>246.6474810816486</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N24" t="n">
-        <v>197.5121512423232</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O24" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P24" t="n">
-        <v>425.9366065834112</v>
+        <v>408.8635629987248</v>
       </c>
       <c r="Q24" t="n">
         <v>231.497271491105</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.39726981316137</v>
+        <v>63.39726981316139</v>
       </c>
       <c r="K25" t="n">
         <v>182.6997311861655</v>
@@ -36534,7 +36534,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.41353851901428</v>
+        <v>84.4135385190143</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>188.6233759407481</v>
+        <v>188.6233759407498</v>
       </c>
       <c r="K26" t="n">
         <v>404.6619937041511</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L27" t="n">
-        <v>135.9849970045004</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M27" t="n">
         <v>643.9455333495109</v>
@@ -36686,13 +36686,13 @@
         <v>676.8545255858767</v>
       </c>
       <c r="O27" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P27" t="n">
-        <v>313.9988445521836</v>
+        <v>142.5518187837662</v>
       </c>
       <c r="Q27" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.39726981316132</v>
+        <v>63.39726981316133</v>
       </c>
       <c r="K28" t="n">
-        <v>182.6997311861654</v>
+        <v>182.6997311861655</v>
       </c>
       <c r="L28" t="n">
         <v>267.0010733764688</v>
@@ -36771,7 +36771,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.41353851901422</v>
+        <v>84.41353851901424</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>330.7994618109763</v>
+        <v>262.2918113423065</v>
       </c>
       <c r="L30" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M30" t="n">
-        <v>246.6474810816486</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N30" t="n">
         <v>197.5121512423232</v>
@@ -36929,7 +36929,7 @@
         <v>425.9366065834112</v>
       </c>
       <c r="Q30" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.39726981316137</v>
+        <v>63.39726981316133</v>
       </c>
       <c r="K31" t="n">
         <v>182.6997311861655</v>
@@ -36996,10 +36996,10 @@
         <v>267.0010733764688</v>
       </c>
       <c r="M31" t="n">
-        <v>287.5620158775312</v>
+        <v>287.5620158775311</v>
       </c>
       <c r="N31" t="n">
-        <v>288.1592345482258</v>
+        <v>288.1592345482257</v>
       </c>
       <c r="O31" t="n">
         <v>256.228937352546</v>
@@ -37008,7 +37008,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.41353851901428</v>
+        <v>84.41353851901424</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>554.8236601362606</v>
       </c>
       <c r="M32" t="n">
-        <v>634.1225133325447</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N32" t="n">
         <v>629.6034830521205</v>
@@ -37084,7 +37084,7 @@
         <v>548.8726369764648</v>
       </c>
       <c r="P32" t="n">
-        <v>430.3951648123246</v>
+        <v>430.3951648123249</v>
       </c>
       <c r="Q32" t="n">
         <v>245.2070669901341</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>66.33422479839766</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L33" t="n">
-        <v>135.9849970045004</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M33" t="n">
-        <v>643.9455333495109</v>
+        <v>575.4378828808412</v>
       </c>
       <c r="N33" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O33" t="n">
         <v>552.1031129581706</v>
       </c>
       <c r="P33" t="n">
-        <v>184.601762288033</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q33" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.49991256098754</v>
+        <v>69.49991256098758</v>
       </c>
       <c r="K34" t="n">
-        <v>188.8023739339916</v>
+        <v>188.8023739339917</v>
       </c>
       <c r="L34" t="n">
         <v>273.103716124295</v>
@@ -37245,7 +37245,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.51618126684045</v>
+        <v>90.51618126684049</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K36" t="n">
-        <v>330.7994618109763</v>
+        <v>218.8616997797492</v>
       </c>
       <c r="L36" t="n">
-        <v>506.8253423079595</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M36" t="n">
-        <v>178.2404695995111</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N36" t="n">
-        <v>265.9191627244609</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O36" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P36" t="n">
         <v>425.9366065834112</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>188.6233759407481</v>
+        <v>95.22510921552409</v>
       </c>
       <c r="K38" t="n">
-        <v>311.2637269789271</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L38" t="n">
         <v>554.8236601362606</v>
@@ -37625,19 +37625,19 @@
         <v>330.7994618109763</v>
       </c>
       <c r="L39" t="n">
-        <v>506.8253423079595</v>
+        <v>342.5100036132105</v>
       </c>
       <c r="M39" t="n">
-        <v>246.6474810816488</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N39" t="n">
-        <v>197.5121512423232</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O39" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P39" t="n">
-        <v>425.9366065834112</v>
+        <v>107.473837943474</v>
       </c>
       <c r="Q39" t="n">
         <v>231.497271491105</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.49991256098753</v>
+        <v>69.49991256098754</v>
       </c>
       <c r="K40" t="n">
         <v>188.8023739339916</v>
       </c>
       <c r="L40" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M40" t="n">
         <v>293.6646586253573</v>
@@ -37719,7 +37719,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.51618126684043</v>
+        <v>90.51618126684045</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.22510921552589</v>
+        <v>188.6233759407481</v>
       </c>
       <c r="K41" t="n">
-        <v>404.6619937041511</v>
+        <v>311.2637269789276</v>
       </c>
       <c r="L41" t="n">
         <v>554.8236601362606</v>
@@ -37862,19 +37862,19 @@
         <v>330.7994618109763</v>
       </c>
       <c r="L42" t="n">
-        <v>506.8253423079595</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M42" t="n">
-        <v>246.6474810816488</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N42" t="n">
-        <v>197.5121512423232</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O42" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P42" t="n">
-        <v>425.9366065834112</v>
+        <v>313.998844552184</v>
       </c>
       <c r="Q42" t="n">
         <v>231.497271491105</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.4999125609887</v>
+        <v>69.49991256098751</v>
       </c>
       <c r="K43" t="n">
         <v>188.8023739339916</v>
@@ -37947,7 +37947,7 @@
         <v>293.6646586253573</v>
       </c>
       <c r="N43" t="n">
-        <v>294.2618772960518</v>
+        <v>294.261877296053</v>
       </c>
       <c r="O43" t="n">
         <v>262.3315801003722</v>
@@ -37956,7 +37956,7 @@
         <v>213.4000938424933</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.51618126684039</v>
+        <v>90.51618126684042</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.22510921552362</v>
+        <v>95.22510921552454</v>
       </c>
       <c r="K44" t="n">
-        <v>404.6619937041513</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L44" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M44" t="n">
-        <v>634.1225133325445</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N44" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O44" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P44" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q44" t="n">
-        <v>245.2070669901342</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>330.7994618109763</v>
+        <v>262.2918113423066</v>
       </c>
       <c r="L45" t="n">
-        <v>506.8253423079597</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M45" t="n">
-        <v>246.6474810816484</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N45" t="n">
-        <v>197.5121512423233</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O45" t="n">
-        <v>552.1031129581708</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P45" t="n">
-        <v>425.9366065834113</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q45" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.49991256098757</v>
+        <v>69.49991256098753</v>
       </c>
       <c r="K46" t="n">
-        <v>188.8023739339917</v>
+        <v>188.8023739339916</v>
       </c>
       <c r="L46" t="n">
-        <v>273.103716124295</v>
+        <v>273.1037161242949</v>
       </c>
       <c r="M46" t="n">
-        <v>293.6646586253574</v>
+        <v>293.6646586253573</v>
       </c>
       <c r="N46" t="n">
         <v>294.2618772960519</v>
       </c>
       <c r="O46" t="n">
-        <v>262.3315801003723</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P46" t="n">
         <v>213.4000938424934</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.51618126684048</v>
+        <v>90.51618126684043</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
